--- a/data/trans_orig/P79A_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79A_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>66371</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49802</v>
+        <v>50672</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87081</v>
+        <v>88363</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1330776549989473</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09985626517315099</v>
+        <v>0.1015992814045023</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1746024421388151</v>
+        <v>0.1771727626560475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -762,19 +762,19 @@
         <v>66644</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52482</v>
+        <v>53710</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>85824</v>
+        <v>85663</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.106872446268525</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08416236889853999</v>
+        <v>0.08613125453307485</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1376305269704513</v>
+        <v>0.137372905578795</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>128</v>
@@ -783,19 +783,19 @@
         <v>133015</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>112086</v>
+        <v>108431</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>164601</v>
+        <v>158214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1185175858559794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09987009837491631</v>
+        <v>0.09661294455383995</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1466613092861102</v>
+        <v>0.1409708291653257</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>432368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411658</v>
+        <v>410376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448937</v>
+        <v>448067</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8669223450010527</v>
+        <v>0.8669223450010528</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.825397557861185</v>
+        <v>0.8228272373439521</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9001437348268491</v>
+        <v>0.8984007185954977</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>786</v>
@@ -833,19 +833,19 @@
         <v>556936</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>537756</v>
+        <v>537917</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>571098</v>
+        <v>569870</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8931275537314748</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8623694730295487</v>
+        <v>0.8626270944212049</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.91583763110146</v>
+        <v>0.9138687454669252</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1188</v>
@@ -854,19 +854,19 @@
         <v>989305</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>957719</v>
+        <v>964106</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1010234</v>
+        <v>1013889</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8814824141440207</v>
+        <v>0.8814824141440206</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8533386907138898</v>
+        <v>0.8590291708346742</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9001299016250838</v>
+        <v>0.90338705544616</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>16962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9387</v>
+        <v>9226</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29701</v>
+        <v>29694</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01766607622125675</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009776453235456712</v>
+        <v>0.009608548308661593</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03093390739405196</v>
+        <v>0.03092632717147051</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -979,19 +979,19 @@
         <v>10281</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6026</v>
+        <v>5878</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17265</v>
+        <v>17534</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0092139863405673</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00540006929084741</v>
+        <v>0.005267696151970665</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01547211350434457</v>
+        <v>0.01571391820160029</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1000,19 +1000,19 @@
         <v>27243</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17729</v>
+        <v>17857</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40291</v>
+        <v>39918</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01312305005291058</v>
+        <v>0.01312305005291057</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008540251530695854</v>
+        <v>0.008601464759008299</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01940798235842037</v>
+        <v>0.01922828549438585</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>943175</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>930436</v>
+        <v>930443</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>950750</v>
+        <v>950911</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9823339237787434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.969066092605948</v>
+        <v>0.969073672828529</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9902235467645433</v>
+        <v>0.9903914516913381</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1593</v>
@@ -1050,19 +1050,19 @@
         <v>1105568</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1098584</v>
+        <v>1098315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1109823</v>
+        <v>1109971</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9907860136594328</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9845278864956551</v>
+        <v>0.9842860817983997</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9945999307091525</v>
+        <v>0.9947323038480295</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2490</v>
@@ -1071,19 +1071,19 @@
         <v>2048743</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2035695</v>
+        <v>2036068</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2058257</v>
+        <v>2058129</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9868769499470894</v>
+        <v>0.9868769499470893</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9805920176415788</v>
+        <v>0.9807717145056147</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.991459748469304</v>
+        <v>0.9913985352409919</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5222</v>
+        <v>4374</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0008307765308440027</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0049896653290875</v>
+        <v>0.004179813812367468</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1196,19 +1196,19 @@
         <v>5663</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2264</v>
+        <v>1790</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15915</v>
+        <v>14688</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005405509418850939</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002161286672303672</v>
+        <v>0.001708187165089607</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01519155873263994</v>
+        <v>0.01401983146232057</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1217,19 +1217,19 @@
         <v>6532</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2711</v>
+        <v>2425</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16921</v>
+        <v>15962</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003119412594479725</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001294644865835414</v>
+        <v>0.001157926364844301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008080009274869997</v>
+        <v>0.007622413002607024</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         <v>1045610</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1041257</v>
+        <v>1042105</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>1046479</v>
@@ -1255,7 +1255,7 @@
         <v>0.999169223469156</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9950103346709126</v>
+        <v>0.9958201861876327</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,19 +1267,19 @@
         <v>1041979</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1031727</v>
+        <v>1032954</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1045378</v>
+        <v>1045852</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9945944905811489</v>
+        <v>0.9945944905811492</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9848084412673597</v>
+        <v>0.9859801685376794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9978387133276962</v>
+        <v>0.9982918128349104</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2538</v>
@@ -1288,19 +1288,19 @@
         <v>2087589</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2077200</v>
+        <v>2078159</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2091410</v>
+        <v>2091696</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9968805874055203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.99191999072513</v>
+        <v>0.992377586997393</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9987053551341644</v>
+        <v>0.9988420736351556</v>
       </c>
     </row>
     <row r="12">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5732</v>
+        <v>6550</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001187897072448358</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005873175434390135</v>
+        <v>0.006711489737837391</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8537</v>
+        <v>9972</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001857972676456607</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009377245033932686</v>
+        <v>0.01095463689849391</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9815</v>
+        <v>10363</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.001511285885565916</v>
+        <v>0.001511285885565915</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005203321153060512</v>
+        <v>0.005493756501078643</v>
       </c>
     </row>
     <row r="14">
@@ -1463,16 +1463,16 @@
         <v>974770</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>970197</v>
+        <v>969379</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>975929</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9988121029275516</v>
+        <v>0.9988121029275515</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9941268245656099</v>
+        <v>0.9932885102621619</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1484,16 +1484,16 @@
         <v>908654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>901808</v>
+        <v>900373</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>910345</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9981420273235435</v>
+        <v>0.9981420273235434</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9906227549660674</v>
+        <v>0.9890453631015063</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1505,7 +1505,7 @@
         <v>1883423</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1876459</v>
+        <v>1875911</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>1886274</v>
@@ -1514,7 +1514,7 @@
         <v>0.9984887141144341</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9947966788469385</v>
+        <v>0.9945062434989221</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1609,19 +1609,19 @@
         <v>85362</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65999</v>
+        <v>65629</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111380</v>
+        <v>111785</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02452014680614815</v>
+        <v>0.02452014680614814</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01895816692266866</v>
+        <v>0.01885202787761117</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03199390781251974</v>
+        <v>0.03211041436035228</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -1630,19 +1630,19 @@
         <v>84279</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66819</v>
+        <v>67349</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107099</v>
+        <v>107822</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02279413506262507</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01807172757423135</v>
+        <v>0.01821514907807665</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02896595544233248</v>
+        <v>0.02916137159084725</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -1651,19 +1651,19 @@
         <v>169641</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>143093</v>
+        <v>142712</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>202478</v>
+        <v>205644</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02363115810516343</v>
+        <v>0.02363115810516344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01993293345824827</v>
+        <v>0.01987989301347097</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02820533721628496</v>
+        <v>0.0286463626915995</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3395922</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3369904</v>
+        <v>3369499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3415285</v>
+        <v>3415655</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9754798531938518</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9680060921874803</v>
+        <v>0.9678895856396476</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9810418330773313</v>
+        <v>0.9811479721223888</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5212</v>
@@ -1701,19 +1701,19 @@
         <v>3613137</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3590317</v>
+        <v>3589594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3630597</v>
+        <v>3630067</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9772058649373747</v>
+        <v>0.977205864937375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9710340445576673</v>
+        <v>0.9708386284091528</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9819282724257686</v>
+        <v>0.9817848509219234</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8485</v>
@@ -1722,19 +1722,19 @@
         <v>7009060</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6976223</v>
+        <v>6973057</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7035608</v>
+        <v>7035989</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9763688418948365</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9717946627837151</v>
+        <v>0.9713536373084005</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9800670665417518</v>
+        <v>0.9801201069865295</v>
       </c>
     </row>
     <row r="18">
